--- a/attendance/src/main/resources/TestData/BaseData/Absent.xlsx
+++ b/attendance/src/main/resources/TestData/BaseData/Absent.xlsx
@@ -19,9 +19,9 @@
     <sheet name="WeeklyOff" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$J$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Policies!$A$1:$J$18</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Policies!$A$1:$J$18</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Policies!$A$1:$K$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">Policies!$A$1:$K$18</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Policies!$A$1:$K$18</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="150">
   <si>
     <t xml:space="preserve">Shift Name</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">LatePlusEarly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarlyDuration</t>
   </si>
   <si>
     <t xml:space="preserve">Common#1</t>
@@ -845,46 +848,46 @@
     </xf>
   </cellXfs>
   <cellStyles count="40">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 17" xfId="20"/>
-    <cellStyle name="Accent 1 18" xfId="21"/>
-    <cellStyle name="Accent 16" xfId="22"/>
-    <cellStyle name="Accent 17" xfId="23"/>
-    <cellStyle name="Accent 2 18" xfId="24"/>
-    <cellStyle name="Accent 2 19" xfId="25"/>
-    <cellStyle name="Accent 3 19" xfId="26"/>
-    <cellStyle name="Accent 3 20" xfId="27"/>
-    <cellStyle name="Bad 13" xfId="28"/>
-    <cellStyle name="Bad 14" xfId="29"/>
-    <cellStyle name="Error 15" xfId="30"/>
-    <cellStyle name="Error 16" xfId="31"/>
-    <cellStyle name="Footnote 8" xfId="32"/>
-    <cellStyle name="Footnote 9" xfId="33"/>
-    <cellStyle name="Good 11" xfId="34"/>
-    <cellStyle name="Good 12" xfId="35"/>
-    <cellStyle name="Heading 1 4" xfId="36"/>
-    <cellStyle name="Heading 1 5" xfId="37"/>
-    <cellStyle name="Heading 2 5" xfId="38"/>
-    <cellStyle name="Heading 2 6" xfId="39"/>
-    <cellStyle name="Heading 3" xfId="40"/>
-    <cellStyle name="Heading 4" xfId="41"/>
-    <cellStyle name="Hyperlink 10" xfId="42"/>
-    <cellStyle name="Hyperlink 9" xfId="43"/>
-    <cellStyle name="Neutral 12" xfId="44"/>
-    <cellStyle name="Neutral 13" xfId="45"/>
-    <cellStyle name="Note 7" xfId="46"/>
-    <cellStyle name="Note 8" xfId="47"/>
-    <cellStyle name="Status 10" xfId="48"/>
-    <cellStyle name="Status 11" xfId="49"/>
-    <cellStyle name="Text 6" xfId="50"/>
-    <cellStyle name="Text 7" xfId="51"/>
-    <cellStyle name="Warning 14" xfId="52"/>
-    <cellStyle name="Warning 15" xfId="53"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Accent 1 17" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1 18" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 16" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 17" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2 18" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2 19" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3 19" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3 20" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad 13" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad 14" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error 15" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error 16" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote 8" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote 9" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good 11" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good 12" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1 4" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1 5" xfId="37" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2 5" xfId="38" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2 6" xfId="39" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 3" xfId="40" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 4" xfId="41" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink 10" xfId="42" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink 9" xfId="43" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral 12" xfId="44" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral 13" xfId="45" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note 7" xfId="46" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note 8" xfId="47" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status 10" xfId="48" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status 11" xfId="49" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text 6" xfId="50" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text 7" xfId="51" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning 14" xfId="52" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning 15" xfId="53" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1057,12 +1060,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,10 +1106,13 @@
       <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1115,7 +1121,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>16</v>
@@ -1135,22 +1141,25 @@
       <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -1167,22 +1176,25 @@
       <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>11</v>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -1199,22 +1211,25 @@
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>11</v>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>16</v>
@@ -1231,22 +1246,25 @@
       <c r="H5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>11</v>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>16</v>
@@ -1263,22 +1281,25 @@
       <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>11</v>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>16</v>
@@ -1295,22 +1316,25 @@
       <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>11</v>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
@@ -1327,22 +1351,25 @@
       <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>11</v>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>16</v>
@@ -1359,22 +1386,25 @@
       <c r="H9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>11</v>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>16</v>
@@ -1391,22 +1421,25 @@
       <c r="H10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>11</v>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>16</v>
@@ -1423,22 +1456,25 @@
       <c r="H11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="I11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>16</v>
@@ -1455,22 +1491,25 @@
       <c r="H12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="I12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>16</v>
@@ -1487,22 +1526,25 @@
       <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>16</v>
@@ -1519,22 +1561,25 @@
       <c r="H14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>16</v>
@@ -1551,22 +1596,25 @@
       <c r="H15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="I15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>16</v>
@@ -1583,22 +1631,25 @@
       <c r="H16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="I16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
@@ -1615,22 +1666,25 @@
       <c r="H17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6" t="s">
+      <c r="I17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>16</v>
@@ -1647,22 +1701,25 @@
       <c r="H18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="6" t="s">
+      <c r="I18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>16</v>
@@ -1679,22 +1736,25 @@
       <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>11</v>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>16</v>
@@ -1711,22 +1771,25 @@
       <c r="H20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>11</v>
+      <c r="I20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>16</v>
@@ -1743,22 +1806,25 @@
       <c r="H21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>11</v>
+      <c r="I21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>16</v>
@@ -1775,22 +1841,25 @@
       <c r="H22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>11</v>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>16</v>
@@ -1807,22 +1876,25 @@
       <c r="H23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>11</v>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>16</v>
@@ -1839,22 +1911,25 @@
       <c r="H24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>11</v>
+      <c r="I24" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>16</v>
@@ -1871,22 +1946,25 @@
       <c r="H25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>11</v>
+      <c r="I25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>16</v>
@@ -1903,22 +1981,25 @@
       <c r="H26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>11</v>
+      <c r="I26" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>16</v>
@@ -1935,22 +2016,25 @@
       <c r="H27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="6" t="s">
+      <c r="I27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>16</v>
@@ -1967,22 +2051,25 @@
       <c r="H28" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J28" s="6" t="s">
+      <c r="I28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>16</v>
@@ -1999,22 +2086,25 @@
       <c r="H29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="6" t="s">
+      <c r="I29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>16</v>
@@ -2031,22 +2121,25 @@
       <c r="H30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="I30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>16</v>
@@ -2063,22 +2156,25 @@
       <c r="H31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="I31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>16</v>
@@ -2095,22 +2191,25 @@
       <c r="H32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="I32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>16</v>
@@ -2127,22 +2226,25 @@
       <c r="H33" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="I33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>16</v>
@@ -2159,15 +2261,18 @@
       <c r="H34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="I34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J34"/>
+  <autoFilter ref="A1:K34"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2198,7 +2303,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>4</v>
@@ -2222,7 +2327,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
@@ -2230,7 +2335,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -2270,22 +2375,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2305,7 +2410,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,7 +2430,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,7 +2450,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,7 +2470,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,7 +2510,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,7 +2530,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,7 +2550,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2465,7 +2570,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2485,7 +2590,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2505,7 +2610,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,7 +2630,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,7 +2650,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,7 +2690,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,7 +2710,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2625,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2685,7 +2790,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2705,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2725,7 +2830,7 @@
         <v>16</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2850,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,7 +2870,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,7 +2890,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2805,7 +2910,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2930,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2845,7 +2950,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,7 +2970,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +3010,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2925,7 +3030,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2961,36 +3066,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>16</v>
@@ -3002,13 +3107,13 @@
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3045,13 +3150,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>22</v>
@@ -3060,19 +3165,19 @@
         <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,31 +3275,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3290,36 +3395,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>16</v>
@@ -3330,22 +3435,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3381,44 +3486,44 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
